--- a/biology/Botanique/Hypseocharitaceae/Hypseocharitaceae.xlsx
+++ b/biology/Botanique/Hypseocharitaceae/Hypseocharitaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Hypseocharitaceae est une petite famille de plantes dicotylédones qui comprend huit espèces du genre Hypseocharis (es).
 Ce sont des plantes herbacées, pérennes, sans tige, à rosette, des régions montagneuses tropicales, originaires des Andes.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Hypseocharis (es), qui vient du grec ὑψόσ / ypsos, « hauteur ; cime ; sommet », et χαρισ / charis, « charme ; beauté », littéralement « beauté des cimes ». 
 </t>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[1] l'incorpore optionnellement aux Geraniaceae dans l'ordre des Geraniales.
-En classification phylogénétique APG III (2009)[2] cette famille est invalide et ses genres sont incorporés dans la famille Geraniaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) l'incorpore optionnellement aux Geraniaceae dans l'ordre des Geraniales.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Geraniaceae.
 </t>
         </is>
       </c>
